--- a/2016년 재료비 8월/미술 재료비.xlsx
+++ b/2016년 재료비 8월/미술 재료비.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="81">
   <si>
     <t>주야</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,9 +41,6 @@
   <si>
     <t>2반</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6반</t>
   </si>
   <si>
     <t>2학년</t>
@@ -802,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -824,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -856,7 +853,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="4">
         <v>10000</v>
@@ -876,7 +873,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="4">
         <v>10000</v>
@@ -896,7 +893,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="4">
         <v>10000</v>
@@ -916,7 +913,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="4">
         <v>10000</v>
@@ -924,19 +921,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" s="3">
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" s="4">
         <v>10000</v>
@@ -944,19 +941,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D7" s="3">
         <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="4">
         <v>10000</v>
@@ -964,7 +961,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>2</v>
@@ -976,7 +973,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="4">
         <v>10000</v>
@@ -984,7 +981,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>2</v>
@@ -996,7 +993,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="4">
         <v>10000</v>
@@ -1004,7 +1001,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>2</v>
@@ -1016,7 +1013,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="4">
         <v>10000</v>
@@ -1024,7 +1021,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>2</v>
@@ -1036,7 +1033,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="4">
         <v>10000</v>
@@ -1044,7 +1041,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>2</v>
@@ -1056,7 +1053,7 @@
         <v>19</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="4">
         <v>10000</v>
@@ -1064,7 +1061,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>2</v>
@@ -1076,7 +1073,7 @@
         <v>21</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" s="4">
         <v>10000</v>
@@ -1084,19 +1081,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="3">
         <v>8</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14" s="4">
         <v>10000</v>
@@ -1104,19 +1101,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="3">
         <v>17</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" s="4">
         <v>10000</v>
@@ -1124,19 +1121,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="3">
         <v>19</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" s="4">
         <v>10000</v>
@@ -1144,19 +1141,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="3">
         <v>25</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" s="4">
         <v>10000</v>
@@ -1164,19 +1161,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="3">
         <v>9</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F18" s="4">
         <v>10000</v>
@@ -1184,19 +1181,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="3">
         <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="4">
         <v>10000</v>
@@ -1204,19 +1201,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="3">
         <v>19</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20" s="4">
         <v>10000</v>
@@ -1224,19 +1221,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="3">
         <v>21</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" s="4">
         <v>10000</v>
@@ -1244,19 +1241,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D22" s="3">
         <v>25</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22" s="4">
         <v>10000</v>
@@ -1264,19 +1261,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="3">
         <v>13</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F23" s="4">
         <v>10000</v>
@@ -1284,19 +1281,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="3">
         <v>18</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F24" s="4">
         <v>10000</v>
@@ -1304,19 +1301,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" s="3">
         <v>24</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" s="4">
         <v>10000</v>
@@ -1324,19 +1321,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D26" s="3">
         <v>18</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F26" s="4">
         <v>10000</v>
@@ -1344,19 +1341,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D27" s="3">
         <v>22</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F27" s="4">
         <v>10000</v>
@@ -1364,19 +1361,19 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D28" s="3">
         <v>4</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="4">
         <v>10000</v>
@@ -1384,19 +1381,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D29" s="3">
         <v>15</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F29" s="4">
         <v>10000</v>
@@ -1404,19 +1401,19 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="D30" s="3">
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F30" s="4">
         <v>10000</v>
@@ -1424,19 +1421,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="D31" s="3">
         <v>26</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F31" s="4">
         <v>10000</v>
@@ -1444,19 +1441,19 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F32" s="4">
         <v>10000</v>
@@ -1464,19 +1461,19 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="3">
         <v>15</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F33" s="4">
         <v>10000</v>
@@ -1484,19 +1481,19 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D34" s="3">
         <v>16</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F34" s="4">
         <v>10000</v>
@@ -1504,19 +1501,19 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F35" s="4">
         <v>10000</v>
@@ -1524,19 +1521,19 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D36" s="3">
         <v>3</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F36" s="4">
         <v>10000</v>
@@ -1544,19 +1541,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37" s="3">
         <v>5</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F37" s="4">
         <v>10000</v>
@@ -1564,19 +1561,19 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D38" s="3">
         <v>10</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F38" s="4">
         <v>10000</v>
@@ -1584,16 +1581,16 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39" s="3">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>61</v>
@@ -1604,19 +1601,19 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D40" s="3">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F40" s="4">
         <v>10000</v>
@@ -1624,19 +1621,19 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D41" s="3">
         <v>9</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F41" s="4">
         <v>10000</v>
@@ -1644,19 +1641,19 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D42" s="3">
         <v>10</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F42" s="4">
         <v>10000</v>
@@ -1664,19 +1661,19 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D43" s="3">
         <v>20</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F43" s="4">
         <v>10000</v>
@@ -1684,19 +1681,19 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D44" s="3">
         <v>3</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F44" s="4">
         <v>10000</v>
@@ -1704,19 +1701,19 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D45" s="3">
         <v>7</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F45" s="4">
         <v>10000</v>
@@ -1724,19 +1721,19 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D46" s="3">
         <v>25</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F46" s="4">
         <v>10000</v>
@@ -1744,19 +1741,19 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D47" s="3">
         <v>9</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F47" s="4">
         <v>10000</v>
@@ -1764,19 +1761,19 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D48" s="3">
         <v>25</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F48" s="4">
         <v>10000</v>
@@ -1784,19 +1781,19 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D49" s="3">
         <v>4</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F49" s="4">
         <v>10000</v>
@@ -1804,19 +1801,19 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D50" s="3">
         <v>12</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F50" s="4">
         <v>10000</v>
@@ -1824,19 +1821,19 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D51" s="3">
         <v>14</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F51" s="4">
         <v>10000</v>
@@ -1844,19 +1841,19 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D52" s="3">
         <v>5</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F52" s="4">
         <v>10000</v>
@@ -1864,22 +1861,28 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D53" s="3">
         <v>23</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F53" s="4">
         <v>10000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="F54">
+        <f>SUM(F2:F53)</f>
+        <v>520000</v>
       </c>
     </row>
   </sheetData>

--- a/2016년 재료비 8월/미술 재료비.xlsx
+++ b/2016년 재료비 8월/미술 재료비.xlsx
@@ -801,7 +801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F54"/>
     </sheetView>
   </sheetViews>
@@ -809,10 +809,9 @@
   <cols>
     <col min="1" max="1" width="8.75" customWidth="1"/>
     <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="3" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="11.125" customWidth="1"/>
-    <col min="6" max="6" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>

--- a/2016년 재료비 8월/미술 재료비.xlsx
+++ b/2016년 재료비 8월/미술 재료비.xlsx
@@ -2,410 +2,243 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="16155" windowHeight="13005"/>
+    <workbookView xWindow="240" yWindow="555" windowWidth="20175" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="학교대상수납요구서식1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="72">
   <si>
     <t>주야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*학년</t>
+  </si>
+  <si>
+    <t>*반</t>
+  </si>
+  <si>
+    <t>*번호</t>
+  </si>
+  <si>
+    <t>*성명</t>
+  </si>
+  <si>
+    <t>*대상금액</t>
+  </si>
+  <si>
+    <t>*자유수강자</t>
   </si>
   <si>
     <t>주간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1학년</t>
   </si>
   <si>
-    <t>1학년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2반</t>
   </si>
   <si>
+    <t>곽민경</t>
+  </si>
+  <si>
+    <t>문주은</t>
+  </si>
+  <si>
+    <t>신해율</t>
+  </si>
+  <si>
+    <t>우윤채</t>
+  </si>
+  <si>
     <t>3반</t>
   </si>
   <si>
-    <t>2반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>김나영</t>
+  </si>
+  <si>
+    <t>김단우</t>
+  </si>
+  <si>
+    <t>김성원</t>
+  </si>
+  <si>
+    <t>이선규</t>
+  </si>
+  <si>
+    <t>이수호</t>
+  </si>
+  <si>
+    <t>이채원</t>
+  </si>
+  <si>
+    <t>채수련</t>
+  </si>
+  <si>
+    <t>최민영</t>
+  </si>
+  <si>
+    <t>4반</t>
+  </si>
+  <si>
+    <t>김주열</t>
+  </si>
+  <si>
+    <t>이수민</t>
+  </si>
+  <si>
+    <t>이지현</t>
+  </si>
+  <si>
+    <t>자유수강대상자</t>
+  </si>
+  <si>
+    <t>한여진</t>
+  </si>
+  <si>
+    <t>5반</t>
+  </si>
+  <si>
+    <t>문채은</t>
+  </si>
+  <si>
+    <t>선윤원</t>
+  </si>
+  <si>
+    <t>이은빈</t>
+  </si>
+  <si>
+    <t>조윤지</t>
+  </si>
+  <si>
+    <t>홍윤수</t>
+  </si>
+  <si>
+    <t>6반</t>
+  </si>
+  <si>
+    <t>송선민</t>
+  </si>
+  <si>
+    <t>이유주</t>
+  </si>
+  <si>
+    <t>홍연수</t>
   </si>
   <si>
     <t>2학년</t>
   </si>
   <si>
+    <t>1반</t>
+  </si>
+  <si>
+    <t>이윤서</t>
+  </si>
+  <si>
+    <t>최은진</t>
+  </si>
+  <si>
+    <t>김건형</t>
+  </si>
+  <si>
+    <t>손채현</t>
+  </si>
+  <si>
+    <t>서민경</t>
+  </si>
+  <si>
+    <t>홍윤성</t>
+  </si>
+  <si>
+    <t>김경민</t>
+  </si>
+  <si>
+    <t>이원재</t>
+  </si>
+  <si>
+    <t>이원희</t>
+  </si>
+  <si>
+    <t>권범수</t>
+  </si>
+  <si>
+    <t>김경철</t>
+  </si>
+  <si>
+    <t>김민지</t>
+  </si>
+  <si>
+    <t>나문채</t>
+  </si>
+  <si>
+    <t>박승현</t>
+  </si>
+  <si>
+    <t>한채연</t>
+  </si>
+  <si>
     <t>3학년</t>
   </si>
   <si>
+    <t>김현수</t>
+  </si>
+  <si>
+    <t>박서영</t>
+  </si>
+  <si>
+    <t>이우성</t>
+  </si>
+  <si>
     <t>4학년</t>
   </si>
   <si>
-    <t>문주은</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신해율</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5반</t>
-  </si>
-  <si>
-    <t>곽민경</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>김나임</t>
+  </si>
+  <si>
+    <t>김서희</t>
+  </si>
+  <si>
+    <t>한하진</t>
+  </si>
+  <si>
+    <t>박강희</t>
+  </si>
+  <si>
+    <t>최예선</t>
+  </si>
+  <si>
+    <t>김예지</t>
   </si>
   <si>
     <t>5학년</t>
   </si>
   <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>학년</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>반</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>번호</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>성명</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>대상금액</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자유수강자</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우윤채</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김단우</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김성원</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이선규</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이수호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이채원</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>채수련</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>최민영</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이수민</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이지현</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>한여진</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선윤원</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이은빈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조윤지</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍윤수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>송선민</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이유주</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍연수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2학년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이윤서</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>최은진</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김건형</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>손채현</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>서민경</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍윤성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김경민</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이원재</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이원희</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>권범수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김경철</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김민지</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>나문채</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>한채연</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>박승현</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3학년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김현수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>박서영</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이우성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김나임</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4학년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김서희</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>한하진</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>박강희</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>최예선</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김예지</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>엄태영</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5학년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이서은</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>김보영</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>홍승표</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김나영</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김주열</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>문채은</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,31 +246,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="굴림"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="9"/>
@@ -459,6 +267,13 @@
       <name val="굴림"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -485,32 +300,31 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -801,18 +615,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="5" customWidth="1"/>
+    <col min="3" max="4" width="10.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -820,39 +634,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F2" s="4">
         <v>10000</v>
@@ -860,19 +674,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3">
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="4">
         <v>10000</v>
@@ -880,19 +694,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3">
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="4">
         <v>10000</v>
@@ -900,19 +714,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3">
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F5" s="4">
         <v>10000</v>
@@ -920,19 +734,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3">
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="F6" s="4">
         <v>10000</v>
@@ -940,19 +754,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3">
         <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F7" s="4">
         <v>10000</v>
@@ -960,19 +774,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3">
         <v>4</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F8" s="4">
         <v>10000</v>
@@ -980,19 +794,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D9" s="3">
         <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F9" s="4">
         <v>10000</v>
@@ -1000,19 +814,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D10" s="3">
         <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F10" s="4">
         <v>10000</v>
@@ -1020,19 +834,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D11" s="3">
         <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F11" s="4">
         <v>10000</v>
@@ -1040,19 +854,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D12" s="3">
         <v>19</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F12" s="4">
         <v>10000</v>
@@ -1060,19 +874,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D13" s="3">
         <v>21</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F13" s="4">
         <v>10000</v>
@@ -1080,19 +894,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D14" s="3">
         <v>8</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="F14" s="4">
         <v>10000</v>
@@ -1100,19 +914,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D15" s="3">
         <v>17</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F15" s="4">
         <v>10000</v>
@@ -1120,774 +934,792 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D16" s="3">
         <v>19</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F16" s="4">
         <v>10000</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D17" s="3">
         <v>25</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F17" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D18" s="3">
         <v>9</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F18" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D19" s="3">
         <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F19" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D20" s="3">
         <v>19</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F20" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D21" s="3">
         <v>21</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F21" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D22" s="3">
         <v>25</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F22" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D23" s="3">
         <v>13</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F23" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D24" s="3">
         <v>18</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F24" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D25" s="3">
         <v>24</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F25" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D26" s="3">
         <v>18</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F26" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D27" s="3">
         <v>22</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F27" s="4">
         <v>10000</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D28" s="3">
         <v>4</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F28" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D29" s="3">
         <v>15</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F29" s="4">
         <v>10000</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D30" s="3">
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F30" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D31" s="3">
         <v>26</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F31" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F32" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D33" s="3">
         <v>15</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F33" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D34" s="3">
         <v>16</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F34" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F35" s="4">
         <v>10000</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D36" s="3">
         <v>3</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F36" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D37" s="3">
         <v>5</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F37" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D38" s="3">
         <v>10</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F38" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D39" s="3">
         <v>12</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F39" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D40" s="3">
         <v>25</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F40" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D41" s="3">
         <v>9</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F41" s="4">
         <v>10000</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D42" s="3">
         <v>10</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F42" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D43" s="3">
         <v>20</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F43" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D44" s="3">
         <v>3</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F44" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D45" s="3">
         <v>7</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F45" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:7">
       <c r="A46" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D46" s="3">
         <v>25</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F46" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:7">
       <c r="A47" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D47" s="3">
         <v>9</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F47" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:7">
       <c r="A48" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D48" s="3">
         <v>25</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F48" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:7">
       <c r="A49" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D49" s="3">
         <v>4</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F49" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:7">
       <c r="A50" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D50" s="3">
         <v>12</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F50" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D51" s="3">
         <v>14</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F51" s="4">
         <v>10000</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D52" s="3">
         <v>5</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F52" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D53" s="3">
         <v>23</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F53" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:7">
       <c r="F54">
         <f>SUM(F2:F53)</f>
         <v>520000</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1897,9 +1729,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1910,9 +1742,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>